--- a/Listas de precios/minorista/TARUGOS.xlsx
+++ b/Listas de precios/minorista/TARUGOS.xlsx
@@ -948,7 +948,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="H1" s="19" t="n"/>
     </row>
@@ -1315,10 +1315,10 @@
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="B40:D40"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A11:G11"/>
     <mergeCell ref="A10:G10"/>
   </mergeCells>
   <pageMargins left="0.7874015748031497" right="0.7874015748031497" top="0.984251968503937" bottom="0.984251968503937" header="0" footer="0"/>

--- a/Listas de precios/minorista/TARUGOS.xlsx
+++ b/Listas de precios/minorista/TARUGOS.xlsx
@@ -948,7 +948,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="H1" s="19" t="n"/>
     </row>
@@ -1315,10 +1315,10 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="B40:D40"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A11:G11"/>
     <mergeCell ref="A10:G10"/>
   </mergeCells>
   <pageMargins left="0.7874015748031497" right="0.7874015748031497" top="0.984251968503937" bottom="0.984251968503937" header="0" footer="0"/>

--- a/Listas de precios/minorista/TARUGOS.xlsx
+++ b/Listas de precios/minorista/TARUGOS.xlsx
@@ -948,7 +948,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="H1" s="19" t="n"/>
     </row>
@@ -1315,10 +1315,10 @@
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="B40:D40"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A11:G11"/>
     <mergeCell ref="A10:G10"/>
   </mergeCells>
   <pageMargins left="0.7874015748031497" right="0.7874015748031497" top="0.984251968503937" bottom="0.984251968503937" header="0" footer="0"/>
